--- a/Benchmark Results Excel Sheets/3ratings_total.xlsx
+++ b/Benchmark Results Excel Sheets/3ratings_total.xlsx
@@ -1,20 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\School\bachelor-final\Benchmark Results Excel Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastian/Documents/School/Bachelor/bachelor-final/Benchmark Results Excel Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8698BC54-A22B-4C36-9DAA-99AD4892E23B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F121A3C-9198-7444-B39F-285A986B8F07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{5F08F5A3-5784-45C9-A29F-24CA0378BFEA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20020" xr2:uid="{5F08F5A3-5784-45C9-A29F-24CA0378BFEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$206:$B$213</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$206:$C$213</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$206:$B$213</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$206:$C$213</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$206:$B$213</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$206:$C$213</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$206:$B$213</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$206:$C$213</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$206:$B$213</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$206:$C$213</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,6 +35,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8268" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="31">
   <si>
     <t>micro avg</t>
   </si>
@@ -114,6 +127,15 @@
   </si>
   <si>
     <t>TFIDF TRIGRAM</t>
+  </si>
+  <si>
+    <t>K-NEIGHBOURS</t>
+  </si>
+  <si>
+    <t>MNB</t>
+  </si>
+  <si>
+    <t>GRADIENT BOOSTING</t>
   </si>
 </sst>
 </file>
@@ -364,6 +386,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -391,29 +436,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,6 +451,985 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>3 Rating</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> Classifier Best Results</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$206:$C$213</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>DECISION TREE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>K-NEIGHBOURS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MNB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RANDOM FOREST</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GRADIENT BOOSTING</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LOGISTIC REGRESSION</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MULTILAYER PERCEPTRON</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$206:$B$213</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.61303063400000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64328809799999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76905297900000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77246278199999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78207857999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81766616999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.822862396</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82789422300000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D4DE-B44A-B675-00ABC07512A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="455587183"/>
+        <c:axId val="455524255"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="455587183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455524255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="455524255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455587183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>184149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A1E2696-DA8C-CC43-BF1F-CD1C68739611}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -728,229 +1729,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BAE464-54F8-48C9-AF67-86A728842A69}">
-  <dimension ref="A1:BT200"/>
+  <dimension ref="A1:BT213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BD209" sqref="BD209"/>
+    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AN216" sqref="AN216"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:71" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
     </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="G2" s="8" t="s">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="G2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="19"/>
       <c r="M2" s="2"/>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="10"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="19"/>
       <c r="U2" s="2"/>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="10"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="19"/>
       <c r="AC2" s="2"/>
-      <c r="AE2" s="8" t="s">
+      <c r="AE2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="10"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="19"/>
       <c r="AK2" s="2"/>
-      <c r="AM2" s="8" t="s">
+      <c r="AM2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="9"/>
-      <c r="AQ2" s="9"/>
-      <c r="AR2" s="10"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="19"/>
       <c r="AS2" s="2"/>
-      <c r="AU2" s="8" t="s">
+      <c r="AU2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="AV2" s="9"/>
-      <c r="AW2" s="9"/>
-      <c r="AX2" s="9"/>
-      <c r="AY2" s="9"/>
-      <c r="AZ2" s="10"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+      <c r="AZ2" s="19"/>
       <c r="BA2" s="2"/>
-      <c r="BC2" s="8" t="s">
+      <c r="BC2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="BD2" s="9"/>
-      <c r="BE2" s="9"/>
-      <c r="BF2" s="9"/>
-      <c r="BG2" s="9"/>
-      <c r="BH2" s="10"/>
+      <c r="BD2" s="18"/>
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18"/>
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="19"/>
       <c r="BI2" s="2"/>
-      <c r="BK2" s="8" t="s">
+      <c r="BK2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="BL2" s="9"/>
-      <c r="BM2" s="9"/>
-      <c r="BN2" s="9"/>
-      <c r="BO2" s="9"/>
-      <c r="BP2" s="10"/>
+      <c r="BL2" s="18"/>
+      <c r="BM2" s="18"/>
+      <c r="BN2" s="18"/>
+      <c r="BO2" s="18"/>
+      <c r="BP2" s="19"/>
       <c r="BQ2" s="2"/>
       <c r="BS2" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
+    <row r="3" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="22"/>
       <c r="M3" s="2"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="13"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="22"/>
       <c r="U3" s="2"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="13"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="22"/>
       <c r="AC3" s="2"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="13"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="22"/>
       <c r="AK3" s="2"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="12"/>
-      <c r="AQ3" s="12"/>
-      <c r="AR3" s="13"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="21"/>
+      <c r="AP3" s="21"/>
+      <c r="AQ3" s="21"/>
+      <c r="AR3" s="22"/>
       <c r="AS3" s="2"/>
-      <c r="AU3" s="11"/>
-      <c r="AV3" s="12"/>
-      <c r="AW3" s="12"/>
-      <c r="AX3" s="12"/>
-      <c r="AY3" s="12"/>
-      <c r="AZ3" s="13"/>
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="21"/>
+      <c r="AW3" s="21"/>
+      <c r="AX3" s="21"/>
+      <c r="AY3" s="21"/>
+      <c r="AZ3" s="22"/>
       <c r="BA3" s="2"/>
-      <c r="BC3" s="11"/>
-      <c r="BD3" s="12"/>
-      <c r="BE3" s="12"/>
-      <c r="BF3" s="12"/>
-      <c r="BG3" s="12"/>
-      <c r="BH3" s="13"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="21"/>
+      <c r="BE3" s="21"/>
+      <c r="BF3" s="21"/>
+      <c r="BG3" s="21"/>
+      <c r="BH3" s="22"/>
       <c r="BI3" s="2"/>
-      <c r="BK3" s="11"/>
-      <c r="BL3" s="12"/>
-      <c r="BM3" s="12"/>
-      <c r="BN3" s="12"/>
-      <c r="BO3" s="12"/>
-      <c r="BP3" s="13"/>
+      <c r="BK3" s="20"/>
+      <c r="BL3" s="21"/>
+      <c r="BM3" s="21"/>
+      <c r="BN3" s="21"/>
+      <c r="BO3" s="21"/>
+      <c r="BP3" s="22"/>
       <c r="BQ3" s="2"/>
     </row>
-    <row r="4" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16"/>
+    <row r="4" spans="1:71" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="25"/>
       <c r="M4" s="2"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="16"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="25"/>
       <c r="U4" s="2"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="16"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="25"/>
       <c r="AC4" s="2"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="16"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="25"/>
       <c r="AK4" s="2"/>
-      <c r="AM4" s="14"/>
-      <c r="AN4" s="15"/>
-      <c r="AO4" s="15"/>
-      <c r="AP4" s="15"/>
-      <c r="AQ4" s="15"/>
-      <c r="AR4" s="16"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="24"/>
+      <c r="AP4" s="24"/>
+      <c r="AQ4" s="24"/>
+      <c r="AR4" s="25"/>
       <c r="AS4" s="2"/>
-      <c r="AU4" s="14"/>
-      <c r="AV4" s="15"/>
-      <c r="AW4" s="15"/>
-      <c r="AX4" s="15"/>
-      <c r="AY4" s="15"/>
-      <c r="AZ4" s="16"/>
+      <c r="AU4" s="23"/>
+      <c r="AV4" s="24"/>
+      <c r="AW4" s="24"/>
+      <c r="AX4" s="24"/>
+      <c r="AY4" s="24"/>
+      <c r="AZ4" s="25"/>
       <c r="BA4" s="2"/>
-      <c r="BC4" s="14"/>
-      <c r="BD4" s="15"/>
-      <c r="BE4" s="15"/>
-      <c r="BF4" s="15"/>
-      <c r="BG4" s="15"/>
-      <c r="BH4" s="16"/>
+      <c r="BC4" s="23"/>
+      <c r="BD4" s="24"/>
+      <c r="BE4" s="24"/>
+      <c r="BF4" s="24"/>
+      <c r="BG4" s="24"/>
+      <c r="BH4" s="25"/>
       <c r="BI4" s="2"/>
-      <c r="BK4" s="14"/>
-      <c r="BL4" s="15"/>
-      <c r="BM4" s="15"/>
-      <c r="BN4" s="15"/>
-      <c r="BO4" s="15"/>
-      <c r="BP4" s="16"/>
+      <c r="BK4" s="23"/>
+      <c r="BL4" s="24"/>
+      <c r="BM4" s="24"/>
+      <c r="BN4" s="24"/>
+      <c r="BO4" s="24"/>
+      <c r="BP4" s="25"/>
       <c r="BQ4" s="2"/>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
+    <row r="5" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.2">
       <c r="H6" s="1">
         <v>1</v>
       </c>
@@ -1096,11 +2097,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="E7" s="17" t="s">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="E7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1269,14 +2270,14 @@
       <c r="BQ7">
         <v>0.77151135199999998</v>
       </c>
-      <c r="BS7" s="25">
+      <c r="BS7" s="9">
         <f>MAX(M7,U7,AC7,AK7,AS7,BA7,BI7,BQ7)</f>
         <v>0.78303022799999999</v>
       </c>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
+    <row r="8" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1450,9 +2451,9 @@
         <v>0.78413317900000001</v>
       </c>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
+    <row r="9" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1626,9 +2627,9 @@
         <v>0.78386167100000004</v>
       </c>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
+    <row r="10" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="3" t="s">
         <v>6</v>
       </c>
@@ -1802,11 +2803,11 @@
         <v>694</v>
       </c>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="E11" s="17" t="s">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="E11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="11"/>
       <c r="H11" s="1">
         <v>1</v>
       </c>
@@ -1956,9 +2957,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
+    <row r="12" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,14 +3128,14 @@
       <c r="BQ12">
         <v>0.762558548</v>
       </c>
-      <c r="BS12" s="25">
+      <c r="BS12" s="9">
         <f t="shared" si="0"/>
         <v>0.78398979700000004</v>
       </c>
     </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
+    <row r="13" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="3" t="s">
         <v>4</v>
       </c>
@@ -2308,9 +3309,9 @@
         <v>0.78425946099999999</v>
       </c>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
+    <row r="14" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
@@ -2484,9 +3485,9 @@
         <v>0.78530259400000002</v>
       </c>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
+    <row r="15" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="3" t="s">
         <v>6</v>
       </c>
@@ -2660,11 +3661,11 @@
         <v>694</v>
       </c>
     </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="E16" s="17" t="s">
+    <row r="16" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="E16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="18"/>
+      <c r="F16" s="11"/>
       <c r="H16" s="1">
         <v>1</v>
       </c>
@@ -2814,9 +3815,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
+    <row r="17" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="3" t="s">
         <v>3</v>
       </c>
@@ -2985,14 +3986,14 @@
       <c r="BQ17">
         <v>0.75127522599999996</v>
       </c>
-      <c r="BS17" s="25">
+      <c r="BS17" s="9">
         <f t="shared" si="0"/>
         <v>0.79722693899999997</v>
       </c>
     </row>
-    <row r="18" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
+    <row r="18" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
@@ -3166,9 +4167,9 @@
         <v>0.79692541699999997</v>
       </c>
     </row>
-    <row r="19" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
+    <row r="19" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="3" t="s">
         <v>5</v>
       </c>
@@ -3342,9 +4343,9 @@
         <v>0.79827089299999998</v>
       </c>
     </row>
-    <row r="20" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E20" s="21"/>
-      <c r="F20" s="22"/>
+    <row r="20" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="3" t="s">
         <v>6</v>
       </c>
@@ -3518,11 +4519,11 @@
         <v>694</v>
       </c>
     </row>
-    <row r="21" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E21" s="17" t="s">
+    <row r="21" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="11"/>
       <c r="H21" s="1">
         <v>1</v>
       </c>
@@ -3672,9 +4673,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
+    <row r="22" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -3843,14 +4844,14 @@
       <c r="BQ22">
         <v>0.76683327499999998</v>
       </c>
-      <c r="BS22" s="25">
+      <c r="BS22" s="9">
         <f t="shared" si="0"/>
         <v>0.80049494600000004</v>
       </c>
     </row>
-    <row r="23" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
+    <row r="23" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
       <c r="G23" s="3" t="s">
         <v>4</v>
       </c>
@@ -4024,9 +5025,9 @@
         <v>0.800529453</v>
       </c>
     </row>
-    <row r="24" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
+    <row r="24" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
       <c r="G24" s="3" t="s">
         <v>5</v>
       </c>
@@ -4200,9 +5201,9 @@
         <v>0.80115273799999998</v>
       </c>
     </row>
-    <row r="25" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
+    <row r="25" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="3" t="s">
         <v>6</v>
       </c>
@@ -4376,11 +5377,11 @@
         <v>694</v>
       </c>
     </row>
-    <row r="26" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E26" s="17" t="s">
+    <row r="26" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="11"/>
       <c r="H26" s="1">
         <v>1</v>
       </c>
@@ -4530,9 +5531,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
+    <row r="27" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
       <c r="G27" s="3" t="s">
         <v>3</v>
       </c>
@@ -4701,14 +5702,14 @@
       <c r="BQ27">
         <v>0.77222499300000003</v>
       </c>
-      <c r="BS27" s="25">
+      <c r="BS27" s="9">
         <f t="shared" si="0"/>
         <v>0.79627186599999999</v>
       </c>
     </row>
-    <row r="28" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
+    <row r="28" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="3" t="s">
         <v>4</v>
       </c>
@@ -4882,9 +5883,9 @@
         <v>0.79664491999999998</v>
       </c>
     </row>
-    <row r="29" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
+    <row r="29" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E29" s="12"/>
+      <c r="F29" s="13"/>
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
@@ -5058,9 +6059,9 @@
         <v>0.79682997099999997</v>
       </c>
     </row>
-    <row r="30" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E30" s="21"/>
-      <c r="F30" s="22"/>
+    <row r="30" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E30" s="14"/>
+      <c r="F30" s="15"/>
       <c r="G30" s="3" t="s">
         <v>6</v>
       </c>
@@ -5234,11 +6235,11 @@
         <v>694</v>
       </c>
     </row>
-    <row r="31" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E31" s="17" t="s">
+    <row r="31" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E31" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="18"/>
+      <c r="F31" s="11"/>
       <c r="H31">
         <v>1</v>
       </c>
@@ -5388,9 +6389,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E32" s="19"/>
-      <c r="F32" s="20"/>
+    <row r="32" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E32" s="12"/>
+      <c r="F32" s="13"/>
       <c r="G32" t="s">
         <v>3</v>
       </c>
@@ -5559,14 +6560,14 @@
       <c r="BQ32">
         <v>0.77560885400000001</v>
       </c>
-      <c r="BS32" s="25">
+      <c r="BS32" s="9">
         <f t="shared" si="0"/>
         <v>0.79785218300000005</v>
       </c>
     </row>
-    <row r="33" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E33" s="19"/>
-      <c r="F33" s="20"/>
+    <row r="33" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E33" s="12"/>
+      <c r="F33" s="13"/>
       <c r="G33" t="s">
         <v>4</v>
       </c>
@@ -5740,9 +6741,9 @@
         <v>0.79703043500000004</v>
       </c>
     </row>
-    <row r="34" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E34" s="19"/>
-      <c r="F34" s="20"/>
+    <row r="34" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
       <c r="G34" t="s">
         <v>5</v>
       </c>
@@ -5916,9 +6917,9 @@
         <v>0.79971181599999996</v>
       </c>
     </row>
-    <row r="35" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E35" s="21"/>
-      <c r="F35" s="22"/>
+    <row r="35" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E35" s="14"/>
+      <c r="F35" s="15"/>
       <c r="G35" t="s">
         <v>6</v>
       </c>
@@ -6092,101 +7093,101 @@
         <v>694</v>
       </c>
     </row>
-    <row r="36" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:72" x14ac:dyDescent="0.2">
       <c r="BS36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="24"/>
-      <c r="S37" s="24"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="24"/>
-      <c r="AB37" s="24"/>
-      <c r="AC37" s="24"/>
-      <c r="AD37" s="24"/>
-      <c r="AE37" s="24"/>
-      <c r="AF37" s="24"/>
-      <c r="AG37" s="24"/>
-      <c r="AH37" s="24"/>
-      <c r="AI37" s="24"/>
-      <c r="AJ37" s="24"/>
-      <c r="AK37" s="24"/>
-      <c r="AL37" s="24"/>
-      <c r="AM37" s="24"/>
-      <c r="AN37" s="24"/>
-      <c r="AO37" s="24"/>
-      <c r="AP37" s="24"/>
-      <c r="AQ37" s="24"/>
-      <c r="AR37" s="24"/>
-      <c r="AS37" s="24"/>
-      <c r="AT37" s="24"/>
-      <c r="AU37" s="24"/>
-      <c r="AV37" s="24"/>
-      <c r="AW37" s="24"/>
-      <c r="AX37" s="24"/>
-      <c r="AY37" s="24"/>
-      <c r="AZ37" s="24"/>
-      <c r="BA37" s="24"/>
-      <c r="BB37" s="24"/>
-      <c r="BC37" s="24"/>
-      <c r="BD37" s="24"/>
-      <c r="BE37" s="24"/>
-      <c r="BF37" s="24"/>
-      <c r="BG37" s="24"/>
-      <c r="BH37" s="24"/>
-      <c r="BI37" s="24"/>
-      <c r="BJ37" s="24"/>
-      <c r="BK37" s="24"/>
-      <c r="BL37" s="24"/>
-      <c r="BM37" s="24"/>
-      <c r="BN37" s="24"/>
-      <c r="BO37" s="24"/>
-      <c r="BP37" s="24"/>
-      <c r="BQ37" s="24"/>
-      <c r="BR37" s="24"/>
+    <row r="37" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8"/>
+      <c r="AM37" s="8"/>
+      <c r="AN37" s="8"/>
+      <c r="AO37" s="8"/>
+      <c r="AP37" s="8"/>
+      <c r="AQ37" s="8"/>
+      <c r="AR37" s="8"/>
+      <c r="AS37" s="8"/>
+      <c r="AT37" s="8"/>
+      <c r="AU37" s="8"/>
+      <c r="AV37" s="8"/>
+      <c r="AW37" s="8"/>
+      <c r="AX37" s="8"/>
+      <c r="AY37" s="8"/>
+      <c r="AZ37" s="8"/>
+      <c r="BA37" s="8"/>
+      <c r="BB37" s="8"/>
+      <c r="BC37" s="8"/>
+      <c r="BD37" s="8"/>
+      <c r="BE37" s="8"/>
+      <c r="BF37" s="8"/>
+      <c r="BG37" s="8"/>
+      <c r="BH37" s="8"/>
+      <c r="BI37" s="8"/>
+      <c r="BJ37" s="8"/>
+      <c r="BK37" s="8"/>
+      <c r="BL37" s="8"/>
+      <c r="BM37" s="8"/>
+      <c r="BN37" s="8"/>
+      <c r="BO37" s="8"/>
+      <c r="BP37" s="8"/>
+      <c r="BQ37" s="8"/>
+      <c r="BR37" s="8"/>
       <c r="BS37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BT37" s="24"/>
+      <c r="BT37" s="8"/>
     </row>
-    <row r="38" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:72" x14ac:dyDescent="0.2">
       <c r="BS38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+    <row r="39" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
       <c r="H39" s="1">
         <v>1</v>
       </c>
@@ -6336,14 +7337,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="E40" s="17" t="s">
+    <row r="40" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="E40" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="18"/>
+      <c r="F40" s="11"/>
       <c r="G40" s="3" t="s">
         <v>3</v>
       </c>
@@ -6512,17 +7513,17 @@
       <c r="BQ40">
         <v>0.78060518199999995</v>
       </c>
-      <c r="BS40" s="25">
+      <c r="BS40" s="9">
         <f t="shared" si="0"/>
         <v>0.79181782899999997</v>
       </c>
     </row>
-    <row r="41" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="20"/>
+    <row r="41" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="13"/>
       <c r="G41" s="3" t="s">
         <v>4</v>
       </c>
@@ -6696,12 +7697,12 @@
         <v>0.7922688</v>
       </c>
     </row>
-    <row r="42" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="20"/>
+    <row r="42" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="13"/>
       <c r="G42" s="3" t="s">
         <v>5</v>
       </c>
@@ -6875,12 +7876,12 @@
         <v>0.79250720500000005</v>
       </c>
     </row>
-    <row r="43" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="22"/>
+    <row r="43" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="15"/>
       <c r="G43" s="3" t="s">
         <v>6</v>
       </c>
@@ -7054,11 +8055,11 @@
         <v>694</v>
       </c>
     </row>
-    <row r="44" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E44" s="17" t="s">
+    <row r="44" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E44" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="18"/>
+      <c r="F44" s="11"/>
       <c r="H44" s="1">
         <v>1</v>
       </c>
@@ -7208,9 +8209,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E45" s="19"/>
-      <c r="F45" s="20"/>
+    <row r="45" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E45" s="12"/>
+      <c r="F45" s="13"/>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -7379,14 +8380,14 @@
       <c r="BQ45">
         <v>0.77165770899999997</v>
       </c>
-      <c r="BS45" s="25">
+      <c r="BS45" s="9">
         <f t="shared" si="0"/>
         <v>0.79109958999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E46" s="19"/>
-      <c r="F46" s="20"/>
+    <row r="46" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E46" s="12"/>
+      <c r="F46" s="13"/>
       <c r="G46" s="3" t="s">
         <v>4</v>
       </c>
@@ -7560,9 +8561,9 @@
         <v>0.79056024599999997</v>
       </c>
     </row>
-    <row r="47" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E47" s="19"/>
-      <c r="F47" s="20"/>
+    <row r="47" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E47" s="12"/>
+      <c r="F47" s="13"/>
       <c r="G47" s="3" t="s">
         <v>5</v>
       </c>
@@ -7736,9 +8737,9 @@
         <v>0.79250720500000005</v>
       </c>
     </row>
-    <row r="48" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E48" s="21"/>
-      <c r="F48" s="22"/>
+    <row r="48" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E48" s="14"/>
+      <c r="F48" s="15"/>
       <c r="G48" s="3" t="s">
         <v>6</v>
       </c>
@@ -7912,11 +8913,11 @@
         <v>694</v>
       </c>
     </row>
-    <row r="49" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E49" s="17" t="s">
+    <row r="49" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E49" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="18"/>
+      <c r="F49" s="11"/>
       <c r="H49" s="1">
         <v>1</v>
       </c>
@@ -8066,9 +9067,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E50" s="19"/>
-      <c r="F50" s="20"/>
+    <row r="50" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E50" s="12"/>
+      <c r="F50" s="13"/>
       <c r="G50" s="3" t="s">
         <v>3</v>
       </c>
@@ -8237,14 +9238,14 @@
       <c r="BQ50">
         <v>0.77010046099999996</v>
       </c>
-      <c r="BS50" s="25">
+      <c r="BS50" s="9">
         <f t="shared" si="0"/>
         <v>0.79028611299999996</v>
       </c>
     </row>
-    <row r="51" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E51" s="19"/>
-      <c r="F51" s="20"/>
+    <row r="51" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E51" s="12"/>
+      <c r="F51" s="13"/>
       <c r="G51" s="3" t="s">
         <v>4</v>
       </c>
@@ -8418,9 +9419,9 @@
         <v>0.79046994100000001</v>
       </c>
     </row>
-    <row r="52" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E52" s="19"/>
-      <c r="F52" s="20"/>
+    <row r="52" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E52" s="12"/>
+      <c r="F52" s="13"/>
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
@@ -8594,9 +9595,9 @@
         <v>0.79250720500000005</v>
       </c>
     </row>
-    <row r="53" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E53" s="21"/>
-      <c r="F53" s="22"/>
+    <row r="53" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E53" s="14"/>
+      <c r="F53" s="15"/>
       <c r="G53" s="3" t="s">
         <v>6</v>
       </c>
@@ -8770,11 +9771,11 @@
         <v>694</v>
       </c>
     </row>
-    <row r="54" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E54" s="17" t="s">
+    <row r="54" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E54" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="18"/>
+      <c r="F54" s="11"/>
       <c r="H54" s="1">
         <v>1</v>
       </c>
@@ -8924,9 +9925,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E55" s="19"/>
-      <c r="F55" s="20"/>
+    <row r="55" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E55" s="12"/>
+      <c r="F55" s="13"/>
       <c r="G55" s="3" t="s">
         <v>3</v>
       </c>
@@ -9095,14 +10096,14 @@
       <c r="BQ55">
         <v>0.77717510599999995</v>
       </c>
-      <c r="BS55" s="25">
+      <c r="BS55" s="9">
         <f t="shared" si="0"/>
         <v>0.79806172399999997</v>
       </c>
     </row>
-    <row r="56" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E56" s="19"/>
-      <c r="F56" s="20"/>
+    <row r="56" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E56" s="12"/>
+      <c r="F56" s="13"/>
       <c r="G56" s="3" t="s">
         <v>4</v>
       </c>
@@ -9276,9 +10277,9 @@
         <v>0.798053911</v>
       </c>
     </row>
-    <row r="57" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E57" s="19"/>
-      <c r="F57" s="20"/>
+    <row r="57" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E57" s="12"/>
+      <c r="F57" s="13"/>
       <c r="G57" s="3" t="s">
         <v>5</v>
       </c>
@@ -9452,9 +10453,9 @@
         <v>0.79971181599999996</v>
       </c>
     </row>
-    <row r="58" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E58" s="21"/>
-      <c r="F58" s="22"/>
+    <row r="58" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E58" s="14"/>
+      <c r="F58" s="15"/>
       <c r="G58" s="3" t="s">
         <v>6</v>
       </c>
@@ -9628,11 +10629,11 @@
         <v>694</v>
       </c>
     </row>
-    <row r="59" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E59" s="17" t="s">
+    <row r="59" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E59" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="18"/>
+      <c r="F59" s="11"/>
       <c r="H59" s="1">
         <v>1</v>
       </c>
@@ -9782,9 +10783,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E60" s="19"/>
-      <c r="F60" s="20"/>
+    <row r="60" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E60" s="12"/>
+      <c r="F60" s="13"/>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -9953,14 +10954,14 @@
       <c r="BQ60">
         <v>0.77847269900000005</v>
       </c>
-      <c r="BS60" s="25">
+      <c r="BS60" s="9">
         <f t="shared" si="0"/>
         <v>0.79236750300000003</v>
       </c>
     </row>
-    <row r="61" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E61" s="19"/>
-      <c r="F61" s="20"/>
+    <row r="61" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E61" s="12"/>
+      <c r="F61" s="13"/>
       <c r="G61" s="3" t="s">
         <v>4</v>
       </c>
@@ -10134,9 +11135,9 @@
         <v>0.79254835400000001</v>
       </c>
     </row>
-    <row r="62" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E62" s="19"/>
-      <c r="F62" s="20"/>
+    <row r="62" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E62" s="12"/>
+      <c r="F62" s="13"/>
       <c r="G62" s="3" t="s">
         <v>5</v>
       </c>
@@ -10310,9 +11311,9 @@
         <v>0.79250720500000005</v>
       </c>
     </row>
-    <row r="63" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E63" s="21"/>
-      <c r="F63" s="22"/>
+    <row r="63" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E63" s="14"/>
+      <c r="F63" s="15"/>
       <c r="G63" s="3" t="s">
         <v>6</v>
       </c>
@@ -10486,11 +11487,11 @@
         <v>694</v>
       </c>
     </row>
-    <row r="64" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E64" s="17" t="s">
+    <row r="64" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E64" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="18"/>
+      <c r="F64" s="11"/>
       <c r="H64">
         <v>1</v>
       </c>
@@ -10640,9 +11641,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E65" s="19"/>
-      <c r="F65" s="20"/>
+    <row r="65" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E65" s="12"/>
+      <c r="F65" s="13"/>
       <c r="G65" t="s">
         <v>3</v>
       </c>
@@ -10811,14 +11812,14 @@
       <c r="BQ65">
         <v>0.78585340599999998</v>
       </c>
-      <c r="BS65" s="25">
+      <c r="BS65" s="9">
         <f t="shared" si="0"/>
         <v>0.82271218800000001</v>
       </c>
     </row>
-    <row r="66" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E66" s="19"/>
-      <c r="F66" s="20"/>
+    <row r="66" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E66" s="12"/>
+      <c r="F66" s="13"/>
       <c r="G66" t="s">
         <v>4</v>
       </c>
@@ -10992,9 +11993,9 @@
         <v>0.82281318800000003</v>
       </c>
     </row>
-    <row r="67" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E67" s="19"/>
-      <c r="F67" s="20"/>
+    <row r="67" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E67" s="12"/>
+      <c r="F67" s="13"/>
       <c r="G67" t="s">
         <v>5</v>
       </c>
@@ -11168,9 +12169,9 @@
         <v>0.82420749299999996</v>
       </c>
     </row>
-    <row r="68" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E68" s="21"/>
-      <c r="F68" s="22"/>
+    <row r="68" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E68" s="14"/>
+      <c r="F68" s="15"/>
       <c r="G68" t="s">
         <v>6</v>
       </c>
@@ -11344,96 +12345,96 @@
         <v>694</v>
       </c>
     </row>
-    <row r="69" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:72" x14ac:dyDescent="0.2">
       <c r="BS69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A70" s="24"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="24"/>
-      <c r="N70" s="24"/>
-      <c r="O70" s="24"/>
-      <c r="P70" s="24"/>
-      <c r="Q70" s="24"/>
-      <c r="R70" s="24"/>
-      <c r="S70" s="24"/>
-      <c r="T70" s="24"/>
-      <c r="U70" s="24"/>
-      <c r="V70" s="24"/>
-      <c r="W70" s="24"/>
-      <c r="X70" s="24"/>
-      <c r="Y70" s="24"/>
-      <c r="Z70" s="24"/>
-      <c r="AA70" s="24"/>
-      <c r="AB70" s="24"/>
-      <c r="AC70" s="24"/>
-      <c r="AD70" s="24"/>
-      <c r="AE70" s="24"/>
-      <c r="AF70" s="24"/>
-      <c r="AG70" s="24"/>
-      <c r="AH70" s="24"/>
-      <c r="AI70" s="24"/>
-      <c r="AJ70" s="24"/>
-      <c r="AK70" s="24"/>
-      <c r="AL70" s="24"/>
-      <c r="AM70" s="24"/>
-      <c r="AN70" s="24"/>
-      <c r="AO70" s="24"/>
-      <c r="AP70" s="24"/>
-      <c r="AQ70" s="24"/>
-      <c r="AR70" s="24"/>
-      <c r="AS70" s="24"/>
-      <c r="AT70" s="24"/>
-      <c r="AU70" s="24"/>
-      <c r="AV70" s="24"/>
-      <c r="AW70" s="24"/>
-      <c r="AX70" s="24"/>
-      <c r="AY70" s="24"/>
-      <c r="AZ70" s="24"/>
-      <c r="BA70" s="24"/>
-      <c r="BB70" s="24"/>
-      <c r="BC70" s="24"/>
-      <c r="BD70" s="24"/>
-      <c r="BE70" s="24"/>
-      <c r="BF70" s="24"/>
-      <c r="BG70" s="24"/>
-      <c r="BH70" s="24"/>
-      <c r="BI70" s="24"/>
-      <c r="BJ70" s="24"/>
-      <c r="BK70" s="24"/>
-      <c r="BL70" s="24"/>
-      <c r="BM70" s="24"/>
-      <c r="BN70" s="24"/>
-      <c r="BO70" s="24"/>
-      <c r="BP70" s="24"/>
-      <c r="BQ70" s="24"/>
-      <c r="BR70" s="24"/>
+    <row r="70" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="8"/>
+      <c r="T70" s="8"/>
+      <c r="U70" s="8"/>
+      <c r="V70" s="8"/>
+      <c r="W70" s="8"/>
+      <c r="X70" s="8"/>
+      <c r="Y70" s="8"/>
+      <c r="Z70" s="8"/>
+      <c r="AA70" s="8"/>
+      <c r="AB70" s="8"/>
+      <c r="AC70" s="8"/>
+      <c r="AD70" s="8"/>
+      <c r="AE70" s="8"/>
+      <c r="AF70" s="8"/>
+      <c r="AG70" s="8"/>
+      <c r="AH70" s="8"/>
+      <c r="AI70" s="8"/>
+      <c r="AJ70" s="8"/>
+      <c r="AK70" s="8"/>
+      <c r="AL70" s="8"/>
+      <c r="AM70" s="8"/>
+      <c r="AN70" s="8"/>
+      <c r="AO70" s="8"/>
+      <c r="AP70" s="8"/>
+      <c r="AQ70" s="8"/>
+      <c r="AR70" s="8"/>
+      <c r="AS70" s="8"/>
+      <c r="AT70" s="8"/>
+      <c r="AU70" s="8"/>
+      <c r="AV70" s="8"/>
+      <c r="AW70" s="8"/>
+      <c r="AX70" s="8"/>
+      <c r="AY70" s="8"/>
+      <c r="AZ70" s="8"/>
+      <c r="BA70" s="8"/>
+      <c r="BB70" s="8"/>
+      <c r="BC70" s="8"/>
+      <c r="BD70" s="8"/>
+      <c r="BE70" s="8"/>
+      <c r="BF70" s="8"/>
+      <c r="BG70" s="8"/>
+      <c r="BH70" s="8"/>
+      <c r="BI70" s="8"/>
+      <c r="BJ70" s="8"/>
+      <c r="BK70" s="8"/>
+      <c r="BL70" s="8"/>
+      <c r="BM70" s="8"/>
+      <c r="BN70" s="8"/>
+      <c r="BO70" s="8"/>
+      <c r="BP70" s="8"/>
+      <c r="BQ70" s="8"/>
+      <c r="BR70" s="8"/>
       <c r="BS70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BT70" s="24"/>
+      <c r="BT70" s="8"/>
     </row>
-    <row r="71" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:72" x14ac:dyDescent="0.2">
       <c r="BS71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:72" x14ac:dyDescent="0.2">
       <c r="H72" s="1">
         <v>1</v>
       </c>
@@ -11583,16 +12584,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A73" s="23" t="s">
+    <row r="73" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A73" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="E73" s="17" t="s">
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="E73" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F73" s="18"/>
+      <c r="F73" s="11"/>
       <c r="G73" s="3" t="s">
         <v>3</v>
       </c>
@@ -11761,17 +12762,17 @@
       <c r="BQ73">
         <v>0.78192802100000003</v>
       </c>
-      <c r="BS73" s="25">
+      <c r="BS73" s="9">
         <f t="shared" si="1"/>
         <v>0.79608330000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="20"/>
+    <row r="74" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="13"/>
       <c r="G74" s="3" t="s">
         <v>4</v>
       </c>
@@ -11945,12 +12946,12 @@
         <v>0.79619759700000003</v>
       </c>
     </row>
-    <row r="75" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="20"/>
+    <row r="75" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="13"/>
       <c r="G75" s="3" t="s">
         <v>5</v>
       </c>
@@ -12124,12 +13125,12 @@
         <v>0.79682997099999997</v>
       </c>
     </row>
-    <row r="76" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="22"/>
+    <row r="76" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="15"/>
       <c r="G76" s="3" t="s">
         <v>6</v>
       </c>
@@ -12303,14 +13304,14 @@
         <v>694</v>
       </c>
     </row>
-    <row r="77" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="E77" s="17" t="s">
+    <row r="77" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="E77" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F77" s="18"/>
+      <c r="F77" s="11"/>
       <c r="H77" s="1">
         <v>1</v>
       </c>
@@ -12460,9 +13461,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E78" s="19"/>
-      <c r="F78" s="20"/>
+    <row r="78" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E78" s="12"/>
+      <c r="F78" s="13"/>
       <c r="G78" s="3" t="s">
         <v>3</v>
       </c>
@@ -12631,14 +13632,14 @@
       <c r="BQ78">
         <v>0.77590421200000004</v>
       </c>
-      <c r="BS78" s="25">
+      <c r="BS78" s="9">
         <f t="shared" si="1"/>
         <v>0.78918563200000003</v>
       </c>
     </row>
-    <row r="79" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E79" s="19"/>
-      <c r="F79" s="20"/>
+    <row r="79" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E79" s="12"/>
+      <c r="F79" s="13"/>
       <c r="G79" s="3" t="s">
         <v>4</v>
       </c>
@@ -12812,9 +13813,9 @@
         <v>0.78873841600000005</v>
       </c>
     </row>
-    <row r="80" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E80" s="19"/>
-      <c r="F80" s="20"/>
+    <row r="80" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E80" s="12"/>
+      <c r="F80" s="13"/>
       <c r="G80" s="3" t="s">
         <v>5</v>
       </c>
@@ -12988,9 +13989,9 @@
         <v>0.79106628199999995</v>
       </c>
     </row>
-    <row r="81" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E81" s="21"/>
-      <c r="F81" s="22"/>
+    <row r="81" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E81" s="14"/>
+      <c r="F81" s="15"/>
       <c r="G81" s="3" t="s">
         <v>6</v>
       </c>
@@ -13164,11 +14165,11 @@
         <v>694</v>
       </c>
     </row>
-    <row r="82" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E82" s="17" t="s">
+    <row r="82" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E82" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F82" s="18"/>
+      <c r="F82" s="11"/>
       <c r="H82" s="1">
         <v>1</v>
       </c>
@@ -13318,9 +14319,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E83" s="19"/>
-      <c r="F83" s="20"/>
+    <row r="83" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E83" s="12"/>
+      <c r="F83" s="13"/>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -13489,14 +14490,14 @@
       <c r="BQ83">
         <v>0.77319224499999994</v>
       </c>
-      <c r="BS83" s="25">
+      <c r="BS83" s="9">
         <f t="shared" si="1"/>
         <v>0.79292143999999998</v>
       </c>
     </row>
-    <row r="84" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E84" s="19"/>
-      <c r="F84" s="20"/>
+    <row r="84" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E84" s="12"/>
+      <c r="F84" s="13"/>
       <c r="G84" s="3" t="s">
         <v>4</v>
       </c>
@@ -13670,9 +14671,9 @@
         <v>0.793071529</v>
       </c>
     </row>
-    <row r="85" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E85" s="19"/>
-      <c r="F85" s="20"/>
+    <row r="85" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E85" s="12"/>
+      <c r="F85" s="13"/>
       <c r="G85" s="3" t="s">
         <v>5</v>
       </c>
@@ -13846,9 +14847,9 @@
         <v>0.79538904899999996</v>
       </c>
     </row>
-    <row r="86" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E86" s="21"/>
-      <c r="F86" s="22"/>
+    <row r="86" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E86" s="14"/>
+      <c r="F86" s="15"/>
       <c r="G86" s="3" t="s">
         <v>6</v>
       </c>
@@ -14022,11 +15023,11 @@
         <v>694</v>
       </c>
     </row>
-    <row r="87" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E87" s="17" t="s">
+    <row r="87" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E87" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F87" s="18"/>
+      <c r="F87" s="11"/>
       <c r="H87" s="1">
         <v>1</v>
       </c>
@@ -14176,9 +15177,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E88" s="19"/>
-      <c r="F88" s="20"/>
+    <row r="88" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E88" s="12"/>
+      <c r="F88" s="13"/>
       <c r="G88" s="3" t="s">
         <v>3</v>
       </c>
@@ -14347,14 +15348,14 @@
       <c r="BQ88">
         <v>0.78149308699999998</v>
       </c>
-      <c r="BS88" s="25">
+      <c r="BS88" s="9">
         <f t="shared" si="1"/>
         <v>0.78598022700000003</v>
       </c>
     </row>
-    <row r="89" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E89" s="19"/>
-      <c r="F89" s="20"/>
+    <row r="89" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E89" s="12"/>
+      <c r="F89" s="13"/>
       <c r="G89" s="3" t="s">
         <v>4</v>
       </c>
@@ -14528,9 +15529,9 @@
         <v>0.78542401900000003</v>
       </c>
     </row>
-    <row r="90" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E90" s="19"/>
-      <c r="F90" s="20"/>
+    <row r="90" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E90" s="12"/>
+      <c r="F90" s="13"/>
       <c r="G90" s="3" t="s">
         <v>5</v>
       </c>
@@ -14704,9 +15705,9 @@
         <v>0.78674351600000003</v>
       </c>
     </row>
-    <row r="91" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E91" s="21"/>
-      <c r="F91" s="22"/>
+    <row r="91" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E91" s="14"/>
+      <c r="F91" s="15"/>
       <c r="G91" s="3" t="s">
         <v>6</v>
       </c>
@@ -14880,11 +15881,11 @@
         <v>694</v>
       </c>
     </row>
-    <row r="92" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E92" s="17" t="s">
+    <row r="92" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E92" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F92" s="18"/>
+      <c r="F92" s="11"/>
       <c r="H92" s="1">
         <v>1</v>
       </c>
@@ -15034,9 +16035,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E93" s="19"/>
-      <c r="F93" s="20"/>
+    <row r="93" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E93" s="12"/>
+      <c r="F93" s="13"/>
       <c r="G93" s="3" t="s">
         <v>3</v>
       </c>
@@ -15205,14 +16206,14 @@
       <c r="BQ93">
         <v>0.77997947099999998</v>
       </c>
-      <c r="BS93" s="25">
+      <c r="BS93" s="9">
         <f t="shared" si="1"/>
         <v>0.80230095899999998</v>
       </c>
     </row>
-    <row r="94" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E94" s="19"/>
-      <c r="F94" s="20"/>
+    <row r="94" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E94" s="12"/>
+      <c r="F94" s="13"/>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
@@ -15386,9 +16387,9 @@
         <v>0.80168232699999997</v>
       </c>
     </row>
-    <row r="95" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E95" s="19"/>
-      <c r="F95" s="20"/>
+    <row r="95" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E95" s="12"/>
+      <c r="F95" s="13"/>
       <c r="G95" s="3" t="s">
         <v>5</v>
       </c>
@@ -15562,9 +16563,9 @@
         <v>0.804034582</v>
       </c>
     </row>
-    <row r="96" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E96" s="21"/>
-      <c r="F96" s="22"/>
+    <row r="96" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E96" s="14"/>
+      <c r="F96" s="15"/>
       <c r="G96" s="3" t="s">
         <v>6</v>
       </c>
@@ -15738,11 +16739,11 @@
         <v>694</v>
       </c>
     </row>
-    <row r="97" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E97" s="17" t="s">
+    <row r="97" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E97" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F97" s="18"/>
+      <c r="F97" s="11"/>
       <c r="H97">
         <v>1</v>
       </c>
@@ -15892,9 +16893,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E98" s="19"/>
-      <c r="F98" s="20"/>
+    <row r="98" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E98" s="12"/>
+      <c r="F98" s="13"/>
       <c r="G98" t="s">
         <v>3</v>
       </c>
@@ -16063,14 +17064,14 @@
       <c r="BQ98">
         <v>0.77432304799999996</v>
       </c>
-      <c r="BS98" s="25">
+      <c r="BS98" s="9">
         <f t="shared" si="1"/>
         <v>0.81167923099999995</v>
       </c>
     </row>
-    <row r="99" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E99" s="19"/>
-      <c r="F99" s="20"/>
+    <row r="99" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E99" s="12"/>
+      <c r="F99" s="13"/>
       <c r="G99" t="s">
         <v>4</v>
       </c>
@@ -16244,9 +17245,9 @@
         <v>0.81258584300000003</v>
       </c>
     </row>
-    <row r="100" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E100" s="19"/>
-      <c r="F100" s="20"/>
+    <row r="100" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E100" s="12"/>
+      <c r="F100" s="13"/>
       <c r="G100" t="s">
         <v>5</v>
       </c>
@@ -16420,9 +17421,9 @@
         <v>0.81412103700000005</v>
       </c>
     </row>
-    <row r="101" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E101" s="21"/>
-      <c r="F101" s="22"/>
+    <row r="101" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E101" s="14"/>
+      <c r="F101" s="15"/>
       <c r="G101" t="s">
         <v>6</v>
       </c>
@@ -16596,101 +17597,101 @@
         <v>694</v>
       </c>
     </row>
-    <row r="102" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:72" x14ac:dyDescent="0.2">
       <c r="BS102">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A103" s="24"/>
-      <c r="B103" s="24"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="24"/>
-      <c r="G103" s="24"/>
-      <c r="H103" s="24"/>
-      <c r="I103" s="24"/>
-      <c r="J103" s="24"/>
-      <c r="K103" s="24"/>
-      <c r="L103" s="24"/>
-      <c r="M103" s="24"/>
-      <c r="N103" s="24"/>
-      <c r="O103" s="24"/>
-      <c r="P103" s="24"/>
-      <c r="Q103" s="24"/>
-      <c r="R103" s="24"/>
-      <c r="S103" s="24"/>
-      <c r="T103" s="24"/>
-      <c r="U103" s="24"/>
-      <c r="V103" s="24"/>
-      <c r="W103" s="24"/>
-      <c r="X103" s="24"/>
-      <c r="Y103" s="24"/>
-      <c r="Z103" s="24"/>
-      <c r="AA103" s="24"/>
-      <c r="AB103" s="24"/>
-      <c r="AC103" s="24"/>
-      <c r="AD103" s="24"/>
-      <c r="AE103" s="24"/>
-      <c r="AF103" s="24"/>
-      <c r="AG103" s="24"/>
-      <c r="AH103" s="24"/>
-      <c r="AI103" s="24"/>
-      <c r="AJ103" s="24"/>
-      <c r="AK103" s="24"/>
-      <c r="AL103" s="24"/>
-      <c r="AM103" s="24"/>
-      <c r="AN103" s="24"/>
-      <c r="AO103" s="24"/>
-      <c r="AP103" s="24"/>
-      <c r="AQ103" s="24"/>
-      <c r="AR103" s="24"/>
-      <c r="AS103" s="24"/>
-      <c r="AT103" s="24"/>
-      <c r="AU103" s="24"/>
-      <c r="AV103" s="24"/>
-      <c r="AW103" s="24"/>
-      <c r="AX103" s="24"/>
-      <c r="AY103" s="24"/>
-      <c r="AZ103" s="24"/>
-      <c r="BA103" s="24"/>
-      <c r="BB103" s="24"/>
-      <c r="BC103" s="24"/>
-      <c r="BD103" s="24"/>
-      <c r="BE103" s="24"/>
-      <c r="BF103" s="24"/>
-      <c r="BG103" s="24"/>
-      <c r="BH103" s="24"/>
-      <c r="BI103" s="24"/>
-      <c r="BJ103" s="24"/>
-      <c r="BK103" s="24"/>
-      <c r="BL103" s="24"/>
-      <c r="BM103" s="24"/>
-      <c r="BN103" s="24"/>
-      <c r="BO103" s="24"/>
-      <c r="BP103" s="24"/>
-      <c r="BQ103" s="24"/>
-      <c r="BR103" s="24"/>
+    <row r="103" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8"/>
+      <c r="N103" s="8"/>
+      <c r="O103" s="8"/>
+      <c r="P103" s="8"/>
+      <c r="Q103" s="8"/>
+      <c r="R103" s="8"/>
+      <c r="S103" s="8"/>
+      <c r="T103" s="8"/>
+      <c r="U103" s="8"/>
+      <c r="V103" s="8"/>
+      <c r="W103" s="8"/>
+      <c r="X103" s="8"/>
+      <c r="Y103" s="8"/>
+      <c r="Z103" s="8"/>
+      <c r="AA103" s="8"/>
+      <c r="AB103" s="8"/>
+      <c r="AC103" s="8"/>
+      <c r="AD103" s="8"/>
+      <c r="AE103" s="8"/>
+      <c r="AF103" s="8"/>
+      <c r="AG103" s="8"/>
+      <c r="AH103" s="8"/>
+      <c r="AI103" s="8"/>
+      <c r="AJ103" s="8"/>
+      <c r="AK103" s="8"/>
+      <c r="AL103" s="8"/>
+      <c r="AM103" s="8"/>
+      <c r="AN103" s="8"/>
+      <c r="AO103" s="8"/>
+      <c r="AP103" s="8"/>
+      <c r="AQ103" s="8"/>
+      <c r="AR103" s="8"/>
+      <c r="AS103" s="8"/>
+      <c r="AT103" s="8"/>
+      <c r="AU103" s="8"/>
+      <c r="AV103" s="8"/>
+      <c r="AW103" s="8"/>
+      <c r="AX103" s="8"/>
+      <c r="AY103" s="8"/>
+      <c r="AZ103" s="8"/>
+      <c r="BA103" s="8"/>
+      <c r="BB103" s="8"/>
+      <c r="BC103" s="8"/>
+      <c r="BD103" s="8"/>
+      <c r="BE103" s="8"/>
+      <c r="BF103" s="8"/>
+      <c r="BG103" s="8"/>
+      <c r="BH103" s="8"/>
+      <c r="BI103" s="8"/>
+      <c r="BJ103" s="8"/>
+      <c r="BK103" s="8"/>
+      <c r="BL103" s="8"/>
+      <c r="BM103" s="8"/>
+      <c r="BN103" s="8"/>
+      <c r="BO103" s="8"/>
+      <c r="BP103" s="8"/>
+      <c r="BQ103" s="8"/>
+      <c r="BR103" s="8"/>
       <c r="BS103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BT103" s="24"/>
+      <c r="BT103" s="8"/>
     </row>
-    <row r="104" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:72" x14ac:dyDescent="0.2">
       <c r="BS104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A105" s="23" t="s">
+    <row r="105" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A105" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B105" s="23"/>
-      <c r="C105" s="23"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
       <c r="H105" s="1">
         <v>1</v>
       </c>
@@ -16840,14 +17841,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A106" s="23"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="23"/>
-      <c r="E106" s="17" t="s">
+    <row r="106" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A106" s="16"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="E106" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F106" s="18"/>
+      <c r="F106" s="11"/>
       <c r="G106" s="3" t="s">
         <v>3</v>
       </c>
@@ -17016,17 +18017,17 @@
       <c r="BQ106" s="4">
         <v>0.790454094</v>
       </c>
-      <c r="BS106" s="25">
+      <c r="BS106" s="9">
         <f t="shared" si="1"/>
         <v>0.790454094</v>
       </c>
     </row>
-    <row r="107" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A107" s="23"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="23"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="20"/>
+    <row r="107" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A107" s="16"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="13"/>
       <c r="G107" s="3" t="s">
         <v>4</v>
       </c>
@@ -17200,12 +18201,12 @@
         <v>0.79253690399999999</v>
       </c>
     </row>
-    <row r="108" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A108" s="23"/>
-      <c r="B108" s="23"/>
-      <c r="C108" s="23"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="20"/>
+    <row r="108" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A108" s="16"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="13"/>
       <c r="G108" s="3" t="s">
         <v>5</v>
       </c>
@@ -17379,12 +18380,12 @@
         <v>0.78962536000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A109" s="23"/>
-      <c r="B109" s="23"/>
-      <c r="C109" s="23"/>
-      <c r="E109" s="21"/>
-      <c r="F109" s="22"/>
+    <row r="109" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A109" s="16"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="15"/>
       <c r="G109" s="3" t="s">
         <v>6</v>
       </c>
@@ -17558,11 +18559,11 @@
         <v>694</v>
       </c>
     </row>
-    <row r="110" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E110" s="17" t="s">
+    <row r="110" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E110" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F110" s="18"/>
+      <c r="F110" s="11"/>
       <c r="H110" s="1">
         <v>1</v>
       </c>
@@ -17712,9 +18713,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E111" s="19"/>
-      <c r="F111" s="20"/>
+    <row r="111" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E111" s="12"/>
+      <c r="F111" s="13"/>
       <c r="G111" s="3" t="s">
         <v>3</v>
       </c>
@@ -17883,14 +18884,14 @@
       <c r="BQ111">
         <v>0.78920353200000004</v>
       </c>
-      <c r="BS111" s="25">
+      <c r="BS111" s="9">
         <f t="shared" si="1"/>
         <v>0.79275092800000002</v>
       </c>
     </row>
-    <row r="112" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E112" s="19"/>
-      <c r="F112" s="20"/>
+    <row r="112" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E112" s="12"/>
+      <c r="F112" s="13"/>
       <c r="G112" s="3" t="s">
         <v>4</v>
       </c>
@@ -18064,9 +19065,9 @@
         <v>0.79309845999999995</v>
       </c>
     </row>
-    <row r="113" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E113" s="19"/>
-      <c r="F113" s="20"/>
+    <row r="113" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E113" s="12"/>
+      <c r="F113" s="13"/>
       <c r="G113" s="3" t="s">
         <v>5</v>
       </c>
@@ -18240,9 +19241,9 @@
         <v>0.79250720500000005</v>
       </c>
     </row>
-    <row r="114" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E114" s="21"/>
-      <c r="F114" s="22"/>
+    <row r="114" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E114" s="14"/>
+      <c r="F114" s="15"/>
       <c r="G114" s="3" t="s">
         <v>6</v>
       </c>
@@ -18416,11 +19417,11 @@
         <v>694</v>
       </c>
     </row>
-    <row r="115" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E115" s="17" t="s">
+    <row r="115" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E115" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F115" s="18"/>
+      <c r="F115" s="11"/>
       <c r="H115" s="1">
         <v>1</v>
       </c>
@@ -18570,9 +19571,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E116" s="19"/>
-      <c r="F116" s="20"/>
+    <row r="116" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E116" s="12"/>
+      <c r="F116" s="13"/>
       <c r="G116" s="3" t="s">
         <v>3</v>
       </c>
@@ -18741,14 +19742,14 @@
       <c r="BQ116">
         <v>0.79178652000000005</v>
       </c>
-      <c r="BS116" s="25">
+      <c r="BS116" s="9">
         <f t="shared" si="1"/>
         <v>0.79214999399999997</v>
       </c>
     </row>
-    <row r="117" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E117" s="19"/>
-      <c r="F117" s="20"/>
+    <row r="117" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E117" s="12"/>
+      <c r="F117" s="13"/>
       <c r="G117" s="3" t="s">
         <v>4</v>
       </c>
@@ -18922,9 +19923,9 @@
         <v>0.79194808299999997</v>
       </c>
     </row>
-    <row r="118" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E118" s="19"/>
-      <c r="F118" s="20"/>
+    <row r="118" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E118" s="12"/>
+      <c r="F118" s="13"/>
       <c r="G118" s="3" t="s">
         <v>5</v>
       </c>
@@ -19098,9 +20099,9 @@
         <v>0.79250720500000005</v>
       </c>
     </row>
-    <row r="119" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E119" s="21"/>
-      <c r="F119" s="22"/>
+    <row r="119" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E119" s="14"/>
+      <c r="F119" s="15"/>
       <c r="G119" s="3" t="s">
         <v>6</v>
       </c>
@@ -19274,11 +20275,11 @@
         <v>694</v>
       </c>
     </row>
-    <row r="120" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E120" s="17" t="s">
+    <row r="120" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E120" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F120" s="18"/>
+      <c r="F120" s="11"/>
       <c r="H120" s="1">
         <v>1</v>
       </c>
@@ -19428,9 +20429,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E121" s="19"/>
-      <c r="F121" s="20"/>
+    <row r="121" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E121" s="12"/>
+      <c r="F121" s="13"/>
       <c r="G121" s="3" t="s">
         <v>3</v>
       </c>
@@ -19599,14 +20600,14 @@
       <c r="BQ121">
         <v>0.79230866</v>
       </c>
-      <c r="BS121" s="25">
+      <c r="BS121" s="9">
         <f t="shared" si="1"/>
         <v>0.79507703100000005</v>
       </c>
     </row>
-    <row r="122" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E122" s="19"/>
-      <c r="F122" s="20"/>
+    <row r="122" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E122" s="12"/>
+      <c r="F122" s="13"/>
       <c r="G122" s="3" t="s">
         <v>4</v>
       </c>
@@ -19780,9 +20781,9 @@
         <v>0.79505447200000001</v>
       </c>
     </row>
-    <row r="123" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E123" s="19"/>
-      <c r="F123" s="20"/>
+    <row r="123" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E123" s="12"/>
+      <c r="F123" s="13"/>
       <c r="G123" s="3" t="s">
         <v>5</v>
       </c>
@@ -19956,9 +20957,9 @@
         <v>0.79538904899999996</v>
       </c>
     </row>
-    <row r="124" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E124" s="21"/>
-      <c r="F124" s="22"/>
+    <row r="124" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E124" s="14"/>
+      <c r="F124" s="15"/>
       <c r="G124" s="3" t="s">
         <v>6</v>
       </c>
@@ -20132,11 +21133,11 @@
         <v>694</v>
       </c>
     </row>
-    <row r="125" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E125" s="17" t="s">
+    <row r="125" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E125" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F125" s="18"/>
+      <c r="F125" s="11"/>
       <c r="H125" s="1">
         <v>1</v>
       </c>
@@ -20286,9 +21287,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E126" s="19"/>
-      <c r="F126" s="20"/>
+    <row r="126" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E126" s="12"/>
+      <c r="F126" s="13"/>
       <c r="G126" s="3" t="s">
         <v>3</v>
       </c>
@@ -20457,14 +21458,14 @@
       <c r="BQ126">
         <v>0.79353136199999996</v>
       </c>
-      <c r="BS126" s="25">
+      <c r="BS126" s="9">
         <f t="shared" si="1"/>
         <v>0.805103028</v>
       </c>
     </row>
-    <row r="127" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E127" s="19"/>
-      <c r="F127" s="20"/>
+    <row r="127" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E127" s="12"/>
+      <c r="F127" s="13"/>
       <c r="G127" s="3" t="s">
         <v>4</v>
       </c>
@@ -20638,9 +21639,9 @@
         <v>0.80498017099999997</v>
       </c>
     </row>
-    <row r="128" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E128" s="19"/>
-      <c r="F128" s="20"/>
+    <row r="128" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E128" s="12"/>
+      <c r="F128" s="13"/>
       <c r="G128" s="3" t="s">
         <v>5</v>
       </c>
@@ -20814,9 +21815,9 @@
         <v>0.80547550400000001</v>
       </c>
     </row>
-    <row r="129" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E129" s="21"/>
-      <c r="F129" s="22"/>
+    <row r="129" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E129" s="14"/>
+      <c r="F129" s="15"/>
       <c r="G129" s="3" t="s">
         <v>6</v>
       </c>
@@ -20990,11 +21991,11 @@
         <v>694</v>
       </c>
     </row>
-    <row r="130" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E130" s="17" t="s">
+    <row r="130" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E130" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F130" s="18"/>
+      <c r="F130" s="11"/>
       <c r="H130">
         <v>1</v>
       </c>
@@ -21144,9 +22145,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E131" s="19"/>
-      <c r="F131" s="20"/>
+    <row r="131" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E131" s="12"/>
+      <c r="F131" s="13"/>
       <c r="G131" t="s">
         <v>3</v>
       </c>
@@ -21315,14 +22316,14 @@
       <c r="BQ131" s="4">
         <v>0.82151524399999998</v>
       </c>
-      <c r="BS131" s="25">
+      <c r="BS131" s="9">
         <f t="shared" si="1"/>
         <v>0.82151524399999998</v>
       </c>
     </row>
-    <row r="132" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E132" s="19"/>
-      <c r="F132" s="20"/>
+    <row r="132" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E132" s="12"/>
+      <c r="F132" s="13"/>
       <c r="G132" t="s">
         <v>4</v>
       </c>
@@ -21496,9 +22497,9 @@
         <v>0.82190707500000004</v>
       </c>
     </row>
-    <row r="133" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E133" s="19"/>
-      <c r="F133" s="20"/>
+    <row r="133" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E133" s="12"/>
+      <c r="F133" s="13"/>
       <c r="G133" t="s">
         <v>5</v>
       </c>
@@ -21672,9 +22673,9 @@
         <v>0.82132564799999996</v>
       </c>
     </row>
-    <row r="134" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E134" s="21"/>
-      <c r="F134" s="22"/>
+    <row r="134" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E134" s="14"/>
+      <c r="F134" s="15"/>
       <c r="G134" t="s">
         <v>6</v>
       </c>
@@ -21848,101 +22849,101 @@
         <v>694</v>
       </c>
     </row>
-    <row r="135" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:72" x14ac:dyDescent="0.2">
       <c r="BS135">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A136" s="24"/>
-      <c r="B136" s="24"/>
-      <c r="C136" s="24"/>
-      <c r="D136" s="24"/>
-      <c r="E136" s="24"/>
-      <c r="F136" s="24"/>
-      <c r="G136" s="24"/>
-      <c r="H136" s="24"/>
-      <c r="I136" s="24"/>
-      <c r="J136" s="24"/>
-      <c r="K136" s="24"/>
-      <c r="L136" s="24"/>
-      <c r="M136" s="24"/>
-      <c r="N136" s="24"/>
-      <c r="O136" s="24"/>
-      <c r="P136" s="24"/>
-      <c r="Q136" s="24"/>
-      <c r="R136" s="24"/>
-      <c r="S136" s="24"/>
-      <c r="T136" s="24"/>
-      <c r="U136" s="24"/>
-      <c r="V136" s="24"/>
-      <c r="W136" s="24"/>
-      <c r="X136" s="24"/>
-      <c r="Y136" s="24"/>
-      <c r="Z136" s="24"/>
-      <c r="AA136" s="24"/>
-      <c r="AB136" s="24"/>
-      <c r="AC136" s="24"/>
-      <c r="AD136" s="24"/>
-      <c r="AE136" s="24"/>
-      <c r="AF136" s="24"/>
-      <c r="AG136" s="24"/>
-      <c r="AH136" s="24"/>
-      <c r="AI136" s="24"/>
-      <c r="AJ136" s="24"/>
-      <c r="AK136" s="24"/>
-      <c r="AL136" s="24"/>
-      <c r="AM136" s="24"/>
-      <c r="AN136" s="24"/>
-      <c r="AO136" s="24"/>
-      <c r="AP136" s="24"/>
-      <c r="AQ136" s="24"/>
-      <c r="AR136" s="24"/>
-      <c r="AS136" s="24"/>
-      <c r="AT136" s="24"/>
-      <c r="AU136" s="24"/>
-      <c r="AV136" s="24"/>
-      <c r="AW136" s="24"/>
-      <c r="AX136" s="24"/>
-      <c r="AY136" s="24"/>
-      <c r="AZ136" s="24"/>
-      <c r="BA136" s="24"/>
-      <c r="BB136" s="24"/>
-      <c r="BC136" s="24"/>
-      <c r="BD136" s="24"/>
-      <c r="BE136" s="24"/>
-      <c r="BF136" s="24"/>
-      <c r="BG136" s="24"/>
-      <c r="BH136" s="24"/>
-      <c r="BI136" s="24"/>
-      <c r="BJ136" s="24"/>
-      <c r="BK136" s="24"/>
-      <c r="BL136" s="24"/>
-      <c r="BM136" s="24"/>
-      <c r="BN136" s="24"/>
-      <c r="BO136" s="24"/>
-      <c r="BP136" s="24"/>
-      <c r="BQ136" s="24"/>
-      <c r="BR136" s="24"/>
+    <row r="136" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
+      <c r="K136" s="8"/>
+      <c r="L136" s="8"/>
+      <c r="M136" s="8"/>
+      <c r="N136" s="8"/>
+      <c r="O136" s="8"/>
+      <c r="P136" s="8"/>
+      <c r="Q136" s="8"/>
+      <c r="R136" s="8"/>
+      <c r="S136" s="8"/>
+      <c r="T136" s="8"/>
+      <c r="U136" s="8"/>
+      <c r="V136" s="8"/>
+      <c r="W136" s="8"/>
+      <c r="X136" s="8"/>
+      <c r="Y136" s="8"/>
+      <c r="Z136" s="8"/>
+      <c r="AA136" s="8"/>
+      <c r="AB136" s="8"/>
+      <c r="AC136" s="8"/>
+      <c r="AD136" s="8"/>
+      <c r="AE136" s="8"/>
+      <c r="AF136" s="8"/>
+      <c r="AG136" s="8"/>
+      <c r="AH136" s="8"/>
+      <c r="AI136" s="8"/>
+      <c r="AJ136" s="8"/>
+      <c r="AK136" s="8"/>
+      <c r="AL136" s="8"/>
+      <c r="AM136" s="8"/>
+      <c r="AN136" s="8"/>
+      <c r="AO136" s="8"/>
+      <c r="AP136" s="8"/>
+      <c r="AQ136" s="8"/>
+      <c r="AR136" s="8"/>
+      <c r="AS136" s="8"/>
+      <c r="AT136" s="8"/>
+      <c r="AU136" s="8"/>
+      <c r="AV136" s="8"/>
+      <c r="AW136" s="8"/>
+      <c r="AX136" s="8"/>
+      <c r="AY136" s="8"/>
+      <c r="AZ136" s="8"/>
+      <c r="BA136" s="8"/>
+      <c r="BB136" s="8"/>
+      <c r="BC136" s="8"/>
+      <c r="BD136" s="8"/>
+      <c r="BE136" s="8"/>
+      <c r="BF136" s="8"/>
+      <c r="BG136" s="8"/>
+      <c r="BH136" s="8"/>
+      <c r="BI136" s="8"/>
+      <c r="BJ136" s="8"/>
+      <c r="BK136" s="8"/>
+      <c r="BL136" s="8"/>
+      <c r="BM136" s="8"/>
+      <c r="BN136" s="8"/>
+      <c r="BO136" s="8"/>
+      <c r="BP136" s="8"/>
+      <c r="BQ136" s="8"/>
+      <c r="BR136" s="8"/>
       <c r="BS136">
         <f t="shared" ref="BS136:BS199" si="2">MAX(M136,U136,AC136,AK136,AS136,BA136,BI136,BQ136)</f>
         <v>0</v>
       </c>
-      <c r="BT136" s="24"/>
+      <c r="BT136" s="8"/>
     </row>
-    <row r="137" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:72" x14ac:dyDescent="0.2">
       <c r="BS137">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A138" s="23" t="s">
+    <row r="138" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A138" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B138" s="23"/>
-      <c r="C138" s="23"/>
+      <c r="B138" s="16"/>
+      <c r="C138" s="16"/>
       <c r="H138" s="1">
         <v>1</v>
       </c>
@@ -22092,14 +23093,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A139" s="23"/>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
-      <c r="E139" s="17" t="s">
+    <row r="139" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A139" s="16"/>
+      <c r="B139" s="16"/>
+      <c r="C139" s="16"/>
+      <c r="E139" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F139" s="18"/>
+      <c r="F139" s="11"/>
       <c r="G139" s="3" t="s">
         <v>3</v>
       </c>
@@ -22268,17 +23269,17 @@
       <c r="BQ139" s="4">
         <v>0.80360626199999996</v>
       </c>
-      <c r="BS139" s="25">
+      <c r="BS139" s="9">
         <f t="shared" si="2"/>
         <v>0.80360626199999996</v>
       </c>
     </row>
-    <row r="140" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A140" s="23"/>
-      <c r="B140" s="23"/>
-      <c r="C140" s="23"/>
-      <c r="E140" s="19"/>
-      <c r="F140" s="20"/>
+    <row r="140" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A140" s="16"/>
+      <c r="B140" s="16"/>
+      <c r="C140" s="16"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="13"/>
       <c r="G140" s="3" t="s">
         <v>4</v>
       </c>
@@ -22452,12 +23453,12 @@
         <v>0.806286277</v>
       </c>
     </row>
-    <row r="141" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A141" s="23"/>
-      <c r="B141" s="23"/>
-      <c r="C141" s="23"/>
-      <c r="E141" s="19"/>
-      <c r="F141" s="20"/>
+    <row r="141" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A141" s="16"/>
+      <c r="B141" s="16"/>
+      <c r="C141" s="16"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="13"/>
       <c r="G141" s="3" t="s">
         <v>5</v>
       </c>
@@ -22631,12 +23632,12 @@
         <v>0.80259365999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A142" s="23"/>
-      <c r="B142" s="23"/>
-      <c r="C142" s="23"/>
-      <c r="E142" s="21"/>
-      <c r="F142" s="22"/>
+    <row r="142" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A142" s="16"/>
+      <c r="B142" s="16"/>
+      <c r="C142" s="16"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="15"/>
       <c r="G142" s="3" t="s">
         <v>6</v>
       </c>
@@ -22810,11 +23811,11 @@
         <v>694</v>
       </c>
     </row>
-    <row r="143" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E143" s="17" t="s">
+    <row r="143" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E143" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F143" s="18"/>
+      <c r="F143" s="11"/>
       <c r="H143" s="1">
         <v>1</v>
       </c>
@@ -22964,9 +23965,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E144" s="19"/>
-      <c r="F144" s="20"/>
+    <row r="144" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E144" s="12"/>
+      <c r="F144" s="13"/>
       <c r="G144" s="3" t="s">
         <v>3</v>
       </c>
@@ -23135,14 +24136,14 @@
       <c r="BQ144">
         <v>0.79938174399999995</v>
       </c>
-      <c r="BS144" s="25">
+      <c r="BS144" s="9">
         <f t="shared" si="2"/>
         <v>0.80141208900000005</v>
       </c>
     </row>
-    <row r="145" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E145" s="19"/>
-      <c r="F145" s="20"/>
+    <row r="145" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E145" s="12"/>
+      <c r="F145" s="13"/>
       <c r="G145" s="3" t="s">
         <v>4</v>
       </c>
@@ -23316,9 +24317,9 @@
         <v>0.80105224799999997</v>
       </c>
     </row>
-    <row r="146" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E146" s="19"/>
-      <c r="F146" s="20"/>
+    <row r="146" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E146" s="12"/>
+      <c r="F146" s="13"/>
       <c r="G146" s="3" t="s">
         <v>5</v>
       </c>
@@ -23492,9 +24493,9 @@
         <v>0.80259365999999999</v>
       </c>
     </row>
-    <row r="147" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E147" s="21"/>
-      <c r="F147" s="22"/>
+    <row r="147" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E147" s="14"/>
+      <c r="F147" s="15"/>
       <c r="G147" s="3" t="s">
         <v>6</v>
       </c>
@@ -23668,11 +24669,11 @@
         <v>694</v>
       </c>
     </row>
-    <row r="148" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E148" s="17" t="s">
+    <row r="148" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E148" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F148" s="18"/>
+      <c r="F148" s="11"/>
       <c r="H148" s="1">
         <v>1</v>
       </c>
@@ -23822,9 +24823,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E149" s="19"/>
-      <c r="F149" s="20"/>
+    <row r="149" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E149" s="12"/>
+      <c r="F149" s="13"/>
       <c r="G149" s="3" t="s">
         <v>3</v>
       </c>
@@ -23993,14 +24994,14 @@
       <c r="BQ149" s="4">
         <v>0.79977151300000004</v>
       </c>
-      <c r="BS149" s="25">
+      <c r="BS149" s="9">
         <f t="shared" si="2"/>
         <v>0.79977151300000004</v>
       </c>
     </row>
-    <row r="150" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E150" s="19"/>
-      <c r="F150" s="20"/>
+    <row r="150" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E150" s="12"/>
+      <c r="F150" s="13"/>
       <c r="G150" s="3" t="s">
         <v>4</v>
       </c>
@@ -24174,9 +25175,9 @@
         <v>0.79933524600000005</v>
       </c>
     </row>
-    <row r="151" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E151" s="19"/>
-      <c r="F151" s="20"/>
+    <row r="151" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E151" s="12"/>
+      <c r="F151" s="13"/>
       <c r="G151" s="3" t="s">
         <v>5</v>
       </c>
@@ -24350,9 +25351,9 @@
         <v>0.80115273799999998</v>
       </c>
     </row>
-    <row r="152" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E152" s="21"/>
-      <c r="F152" s="22"/>
+    <row r="152" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E152" s="14"/>
+      <c r="F152" s="15"/>
       <c r="G152" s="3" t="s">
         <v>6</v>
       </c>
@@ -24526,11 +25527,11 @@
         <v>694</v>
       </c>
     </row>
-    <row r="153" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E153" s="17" t="s">
+    <row r="153" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E153" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F153" s="18"/>
+      <c r="F153" s="11"/>
       <c r="H153" s="1">
         <v>1</v>
       </c>
@@ -24680,9 +25681,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E154" s="19"/>
-      <c r="F154" s="20"/>
+    <row r="154" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E154" s="12"/>
+      <c r="F154" s="13"/>
       <c r="G154" s="3" t="s">
         <v>3</v>
       </c>
@@ -24851,14 +25852,14 @@
       <c r="BQ154">
         <v>0.79955653699999996</v>
       </c>
-      <c r="BS154" s="25">
+      <c r="BS154" s="9">
         <f t="shared" si="2"/>
         <v>0.80311303000000001</v>
       </c>
     </row>
-    <row r="155" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E155" s="19"/>
-      <c r="F155" s="20"/>
+    <row r="155" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E155" s="12"/>
+      <c r="F155" s="13"/>
       <c r="G155" s="3" t="s">
         <v>4</v>
       </c>
@@ -25032,9 +26033,9 @@
         <v>0.80264199700000005</v>
       </c>
     </row>
-    <row r="156" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E156" s="19"/>
-      <c r="F156" s="20"/>
+    <row r="156" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E156" s="12"/>
+      <c r="F156" s="13"/>
       <c r="G156" s="3" t="s">
         <v>5</v>
       </c>
@@ -25208,9 +26209,9 @@
         <v>0.804034582</v>
       </c>
     </row>
-    <row r="157" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E157" s="21"/>
-      <c r="F157" s="22"/>
+    <row r="157" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E157" s="14"/>
+      <c r="F157" s="15"/>
       <c r="G157" s="3" t="s">
         <v>6</v>
       </c>
@@ -25384,11 +26385,11 @@
         <v>694</v>
       </c>
     </row>
-    <row r="158" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E158" s="17" t="s">
+    <row r="158" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E158" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F158" s="18"/>
+      <c r="F158" s="11"/>
       <c r="H158" s="1">
         <v>1</v>
       </c>
@@ -25538,9 +26539,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E159" s="19"/>
-      <c r="F159" s="20"/>
+    <row r="159" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E159" s="12"/>
+      <c r="F159" s="13"/>
       <c r="G159" s="3" t="s">
         <v>3</v>
       </c>
@@ -25709,14 +26710,14 @@
       <c r="BQ159">
         <v>0.80105337300000001</v>
       </c>
-      <c r="BS159" s="25">
+      <c r="BS159" s="9">
         <f t="shared" si="2"/>
         <v>0.80786574499999997</v>
       </c>
     </row>
-    <row r="160" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E160" s="19"/>
-      <c r="F160" s="20"/>
+    <row r="160" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E160" s="12"/>
+      <c r="F160" s="13"/>
       <c r="G160" s="3" t="s">
         <v>4</v>
       </c>
@@ -25890,9 +26891,9 @@
         <v>0.807664453</v>
       </c>
     </row>
-    <row r="161" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E161" s="19"/>
-      <c r="F161" s="20"/>
+    <row r="161" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E161" s="12"/>
+      <c r="F161" s="13"/>
       <c r="G161" s="3" t="s">
         <v>5</v>
       </c>
@@ -26066,9 +27067,9 @@
         <v>0.808357349</v>
       </c>
     </row>
-    <row r="162" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E162" s="21"/>
-      <c r="F162" s="22"/>
+    <row r="162" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E162" s="14"/>
+      <c r="F162" s="15"/>
       <c r="G162" s="3" t="s">
         <v>6</v>
       </c>
@@ -26242,11 +27243,11 @@
         <v>694</v>
       </c>
     </row>
-    <row r="163" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E163" s="17" t="s">
+    <row r="163" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E163" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F163" s="18"/>
+      <c r="F163" s="11"/>
       <c r="H163">
         <v>1</v>
       </c>
@@ -26396,9 +27397,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E164" s="19"/>
-      <c r="F164" s="20"/>
+    <row r="164" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E164" s="12"/>
+      <c r="F164" s="13"/>
       <c r="G164" t="s">
         <v>3</v>
       </c>
@@ -26567,14 +27568,14 @@
       <c r="BQ164" s="4">
         <v>0.82329617499999996</v>
       </c>
-      <c r="BS164" s="25">
+      <c r="BS164" s="9">
         <f t="shared" si="2"/>
         <v>0.82329617499999996</v>
       </c>
     </row>
-    <row r="165" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E165" s="19"/>
-      <c r="F165" s="20"/>
+    <row r="165" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E165" s="12"/>
+      <c r="F165" s="13"/>
       <c r="G165" t="s">
         <v>4</v>
       </c>
@@ -26748,9 +27749,9 @@
         <v>0.82280441699999995</v>
       </c>
     </row>
-    <row r="166" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E166" s="19"/>
-      <c r="F166" s="20"/>
+    <row r="166" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E166" s="12"/>
+      <c r="F166" s="13"/>
       <c r="G166" t="s">
         <v>5</v>
       </c>
@@ -26924,9 +27925,9 @@
         <v>0.82420749299999996</v>
       </c>
     </row>
-    <row r="167" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E167" s="21"/>
-      <c r="F167" s="22"/>
+    <row r="167" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E167" s="14"/>
+      <c r="F167" s="15"/>
       <c r="G167" t="s">
         <v>6</v>
       </c>
@@ -27100,101 +28101,101 @@
         <v>694</v>
       </c>
     </row>
-    <row r="168" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:72" x14ac:dyDescent="0.2">
       <c r="BS168">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A169" s="24"/>
-      <c r="B169" s="24"/>
-      <c r="C169" s="24"/>
-      <c r="D169" s="24"/>
-      <c r="E169" s="24"/>
-      <c r="F169" s="24"/>
-      <c r="G169" s="24"/>
-      <c r="H169" s="24"/>
-      <c r="I169" s="24"/>
-      <c r="J169" s="24"/>
-      <c r="K169" s="24"/>
-      <c r="L169" s="24"/>
-      <c r="M169" s="24"/>
-      <c r="N169" s="24"/>
-      <c r="O169" s="24"/>
-      <c r="P169" s="24"/>
-      <c r="Q169" s="24"/>
-      <c r="R169" s="24"/>
-      <c r="S169" s="24"/>
-      <c r="T169" s="24"/>
-      <c r="U169" s="24"/>
-      <c r="V169" s="24"/>
-      <c r="W169" s="24"/>
-      <c r="X169" s="24"/>
-      <c r="Y169" s="24"/>
-      <c r="Z169" s="24"/>
-      <c r="AA169" s="24"/>
-      <c r="AB169" s="24"/>
-      <c r="AC169" s="24"/>
-      <c r="AD169" s="24"/>
-      <c r="AE169" s="24"/>
-      <c r="AF169" s="24"/>
-      <c r="AG169" s="24"/>
-      <c r="AH169" s="24"/>
-      <c r="AI169" s="24"/>
-      <c r="AJ169" s="24"/>
-      <c r="AK169" s="24"/>
-      <c r="AL169" s="24"/>
-      <c r="AM169" s="24"/>
-      <c r="AN169" s="24"/>
-      <c r="AO169" s="24"/>
-      <c r="AP169" s="24"/>
-      <c r="AQ169" s="24"/>
-      <c r="AR169" s="24"/>
-      <c r="AS169" s="24"/>
-      <c r="AT169" s="24"/>
-      <c r="AU169" s="24"/>
-      <c r="AV169" s="24"/>
-      <c r="AW169" s="24"/>
-      <c r="AX169" s="24"/>
-      <c r="AY169" s="24"/>
-      <c r="AZ169" s="24"/>
-      <c r="BA169" s="24"/>
-      <c r="BB169" s="24"/>
-      <c r="BC169" s="24"/>
-      <c r="BD169" s="24"/>
-      <c r="BE169" s="24"/>
-      <c r="BF169" s="24"/>
-      <c r="BG169" s="24"/>
-      <c r="BH169" s="24"/>
-      <c r="BI169" s="24"/>
-      <c r="BJ169" s="24"/>
-      <c r="BK169" s="24"/>
-      <c r="BL169" s="24"/>
-      <c r="BM169" s="24"/>
-      <c r="BN169" s="24"/>
-      <c r="BO169" s="24"/>
-      <c r="BP169" s="24"/>
-      <c r="BQ169" s="24"/>
-      <c r="BR169" s="24"/>
+    <row r="169" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A169" s="8"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="8"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="8"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
+      <c r="H169" s="8"/>
+      <c r="I169" s="8"/>
+      <c r="J169" s="8"/>
+      <c r="K169" s="8"/>
+      <c r="L169" s="8"/>
+      <c r="M169" s="8"/>
+      <c r="N169" s="8"/>
+      <c r="O169" s="8"/>
+      <c r="P169" s="8"/>
+      <c r="Q169" s="8"/>
+      <c r="R169" s="8"/>
+      <c r="S169" s="8"/>
+      <c r="T169" s="8"/>
+      <c r="U169" s="8"/>
+      <c r="V169" s="8"/>
+      <c r="W169" s="8"/>
+      <c r="X169" s="8"/>
+      <c r="Y169" s="8"/>
+      <c r="Z169" s="8"/>
+      <c r="AA169" s="8"/>
+      <c r="AB169" s="8"/>
+      <c r="AC169" s="8"/>
+      <c r="AD169" s="8"/>
+      <c r="AE169" s="8"/>
+      <c r="AF169" s="8"/>
+      <c r="AG169" s="8"/>
+      <c r="AH169" s="8"/>
+      <c r="AI169" s="8"/>
+      <c r="AJ169" s="8"/>
+      <c r="AK169" s="8"/>
+      <c r="AL169" s="8"/>
+      <c r="AM169" s="8"/>
+      <c r="AN169" s="8"/>
+      <c r="AO169" s="8"/>
+      <c r="AP169" s="8"/>
+      <c r="AQ169" s="8"/>
+      <c r="AR169" s="8"/>
+      <c r="AS169" s="8"/>
+      <c r="AT169" s="8"/>
+      <c r="AU169" s="8"/>
+      <c r="AV169" s="8"/>
+      <c r="AW169" s="8"/>
+      <c r="AX169" s="8"/>
+      <c r="AY169" s="8"/>
+      <c r="AZ169" s="8"/>
+      <c r="BA169" s="8"/>
+      <c r="BB169" s="8"/>
+      <c r="BC169" s="8"/>
+      <c r="BD169" s="8"/>
+      <c r="BE169" s="8"/>
+      <c r="BF169" s="8"/>
+      <c r="BG169" s="8"/>
+      <c r="BH169" s="8"/>
+      <c r="BI169" s="8"/>
+      <c r="BJ169" s="8"/>
+      <c r="BK169" s="8"/>
+      <c r="BL169" s="8"/>
+      <c r="BM169" s="8"/>
+      <c r="BN169" s="8"/>
+      <c r="BO169" s="8"/>
+      <c r="BP169" s="8"/>
+      <c r="BQ169" s="8"/>
+      <c r="BR169" s="8"/>
       <c r="BS169">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BT169" s="24"/>
+      <c r="BT169" s="8"/>
     </row>
-    <row r="170" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:72" x14ac:dyDescent="0.2">
       <c r="BS170">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A171" s="23" t="s">
+    <row r="171" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A171" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B171" s="23"/>
-      <c r="C171" s="23"/>
+      <c r="B171" s="16"/>
+      <c r="C171" s="16"/>
       <c r="H171" s="1">
         <v>1</v>
       </c>
@@ -27344,14 +28345,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A172" s="23"/>
-      <c r="B172" s="23"/>
-      <c r="C172" s="23"/>
-      <c r="E172" s="17" t="s">
+    <row r="172" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A172" s="16"/>
+      <c r="B172" s="16"/>
+      <c r="C172" s="16"/>
+      <c r="E172" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F172" s="18"/>
+      <c r="F172" s="11"/>
       <c r="G172" s="3" t="s">
         <v>3</v>
       </c>
@@ -27520,17 +28521,17 @@
       <c r="BQ172" s="4">
         <v>0.800416978</v>
       </c>
-      <c r="BS172" s="25">
+      <c r="BS172" s="9">
         <f t="shared" si="2"/>
         <v>0.800416978</v>
       </c>
     </row>
-    <row r="173" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A173" s="23"/>
-      <c r="B173" s="23"/>
-      <c r="C173" s="23"/>
-      <c r="E173" s="19"/>
-      <c r="F173" s="20"/>
+    <row r="173" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A173" s="16"/>
+      <c r="B173" s="16"/>
+      <c r="C173" s="16"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="13"/>
       <c r="G173" s="3" t="s">
         <v>4</v>
       </c>
@@ -27704,12 +28705,12 @@
         <v>0.80250047800000002</v>
       </c>
     </row>
-    <row r="174" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A174" s="23"/>
-      <c r="B174" s="23"/>
-      <c r="C174" s="23"/>
-      <c r="E174" s="19"/>
-      <c r="F174" s="20"/>
+    <row r="174" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A174" s="16"/>
+      <c r="B174" s="16"/>
+      <c r="C174" s="16"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="13"/>
       <c r="G174" s="3" t="s">
         <v>5</v>
       </c>
@@ -27883,12 +28884,12 @@
         <v>0.79971181599999996</v>
       </c>
     </row>
-    <row r="175" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A175" s="23"/>
-      <c r="B175" s="23"/>
-      <c r="C175" s="23"/>
-      <c r="E175" s="21"/>
-      <c r="F175" s="22"/>
+    <row r="175" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A175" s="16"/>
+      <c r="B175" s="16"/>
+      <c r="C175" s="16"/>
+      <c r="E175" s="14"/>
+      <c r="F175" s="15"/>
       <c r="G175" s="3" t="s">
         <v>6</v>
       </c>
@@ -28062,11 +29063,11 @@
         <v>694</v>
       </c>
     </row>
-    <row r="176" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="E176" s="17" t="s">
+    <row r="176" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="E176" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F176" s="18"/>
+      <c r="F176" s="11"/>
       <c r="H176" s="1">
         <v>1</v>
       </c>
@@ -28216,9 +29217,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E177" s="19"/>
-      <c r="F177" s="20"/>
+    <row r="177" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E177" s="12"/>
+      <c r="F177" s="13"/>
       <c r="G177" s="3" t="s">
         <v>3</v>
       </c>
@@ -28387,14 +29388,14 @@
       <c r="BQ177">
         <v>0.79675788800000003</v>
       </c>
-      <c r="BS177" s="25">
+      <c r="BS177" s="9">
         <f t="shared" si="2"/>
         <v>0.79870829700000001</v>
       </c>
     </row>
-    <row r="178" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E178" s="19"/>
-      <c r="F178" s="20"/>
+    <row r="178" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E178" s="12"/>
+      <c r="F178" s="13"/>
       <c r="G178" s="3" t="s">
         <v>4</v>
       </c>
@@ -28568,9 +29569,9 @@
         <v>0.79832162699999998</v>
       </c>
     </row>
-    <row r="179" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E179" s="19"/>
-      <c r="F179" s="20"/>
+    <row r="179" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E179" s="12"/>
+      <c r="F179" s="13"/>
       <c r="G179" s="3" t="s">
         <v>5</v>
       </c>
@@ -28744,9 +29745,9 @@
         <v>0.79971181599999996</v>
       </c>
     </row>
-    <row r="180" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E180" s="21"/>
-      <c r="F180" s="22"/>
+    <row r="180" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E180" s="14"/>
+      <c r="F180" s="15"/>
       <c r="G180" s="3" t="s">
         <v>6</v>
       </c>
@@ -28920,11 +29921,11 @@
         <v>694</v>
       </c>
     </row>
-    <row r="181" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E181" s="17" t="s">
+    <row r="181" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E181" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F181" s="18"/>
+      <c r="F181" s="11"/>
       <c r="H181" s="1">
         <v>1</v>
       </c>
@@ -29074,9 +30075,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E182" s="19"/>
-      <c r="F182" s="20"/>
+    <row r="182" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E182" s="12"/>
+      <c r="F182" s="13"/>
       <c r="G182" s="3" t="s">
         <v>3</v>
       </c>
@@ -29245,14 +30246,14 @@
       <c r="BQ182" s="4">
         <v>0.79985795800000004</v>
       </c>
-      <c r="BS182" s="25">
+      <c r="BS182" s="9">
         <f t="shared" si="2"/>
         <v>0.79985795800000004</v>
       </c>
     </row>
-    <row r="183" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E183" s="19"/>
-      <c r="F183" s="20"/>
+    <row r="183" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E183" s="12"/>
+      <c r="F183" s="13"/>
       <c r="G183" s="3" t="s">
         <v>4</v>
       </c>
@@ -29426,9 +30427,9 @@
         <v>0.79949661299999997</v>
       </c>
     </row>
-    <row r="184" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E184" s="19"/>
-      <c r="F184" s="20"/>
+    <row r="184" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E184" s="12"/>
+      <c r="F184" s="13"/>
       <c r="G184" s="3" t="s">
         <v>5</v>
       </c>
@@ -29602,9 +30603,9 @@
         <v>0.80115273799999998</v>
       </c>
     </row>
-    <row r="185" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E185" s="21"/>
-      <c r="F185" s="22"/>
+    <row r="185" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E185" s="14"/>
+      <c r="F185" s="15"/>
       <c r="G185" s="3" t="s">
         <v>6</v>
       </c>
@@ -29778,11 +30779,11 @@
         <v>694</v>
       </c>
     </row>
-    <row r="186" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E186" s="17" t="s">
+    <row r="186" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E186" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F186" s="18"/>
+      <c r="F186" s="11"/>
       <c r="H186" s="1">
         <v>1</v>
       </c>
@@ -29932,9 +30933,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E187" s="19"/>
-      <c r="F187" s="20"/>
+    <row r="187" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E187" s="12"/>
+      <c r="F187" s="13"/>
       <c r="G187" s="3" t="s">
         <v>3</v>
       </c>
@@ -30103,14 +31104,14 @@
       <c r="BQ187">
         <v>0.79664493000000003</v>
       </c>
-      <c r="BS187" s="25">
+      <c r="BS187" s="9">
         <f t="shared" si="2"/>
         <v>0.80305723500000004</v>
       </c>
     </row>
-    <row r="188" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E188" s="19"/>
-      <c r="F188" s="20"/>
+    <row r="188" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E188" s="12"/>
+      <c r="F188" s="13"/>
       <c r="G188" s="3" t="s">
         <v>4</v>
       </c>
@@ -30284,9 +31285,9 @@
         <v>0.80252860999999998</v>
       </c>
     </row>
-    <row r="189" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E189" s="19"/>
-      <c r="F189" s="20"/>
+    <row r="189" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E189" s="12"/>
+      <c r="F189" s="13"/>
       <c r="G189" s="3" t="s">
         <v>5</v>
       </c>
@@ -30460,9 +31461,9 @@
         <v>0.804034582</v>
       </c>
     </row>
-    <row r="190" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E190" s="21"/>
-      <c r="F190" s="22"/>
+    <row r="190" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E190" s="14"/>
+      <c r="F190" s="15"/>
       <c r="G190" s="3" t="s">
         <v>6</v>
       </c>
@@ -30636,11 +31637,11 @@
         <v>694</v>
       </c>
     </row>
-    <row r="191" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E191" s="17" t="s">
+    <row r="191" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E191" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F191" s="18"/>
+      <c r="F191" s="11"/>
       <c r="H191" s="1">
         <v>1</v>
       </c>
@@ -30790,9 +31791,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E192" s="19"/>
-      <c r="F192" s="20"/>
+    <row r="192" spans="5:71" x14ac:dyDescent="0.2">
+      <c r="E192" s="12"/>
+      <c r="F192" s="13"/>
       <c r="G192" s="3" t="s">
         <v>3</v>
       </c>
@@ -30961,14 +31962,14 @@
       <c r="BQ192">
         <v>0.79974254300000003</v>
       </c>
-      <c r="BS192" s="25">
+      <c r="BS192" s="9">
         <f t="shared" si="2"/>
         <v>0.80920508999999996</v>
       </c>
     </row>
-    <row r="193" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E193" s="19"/>
-      <c r="F193" s="20"/>
+    <row r="193" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="E193" s="12"/>
+      <c r="F193" s="13"/>
       <c r="G193" s="3" t="s">
         <v>4</v>
       </c>
@@ -31142,9 +32143,9 @@
         <v>0.80885793900000003</v>
       </c>
     </row>
-    <row r="194" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E194" s="19"/>
-      <c r="F194" s="20"/>
+    <row r="194" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="E194" s="12"/>
+      <c r="F194" s="13"/>
       <c r="G194" s="3" t="s">
         <v>5</v>
       </c>
@@ -31318,9 +32319,9 @@
         <v>0.80979827100000001</v>
       </c>
     </row>
-    <row r="195" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E195" s="21"/>
-      <c r="F195" s="22"/>
+    <row r="195" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="E195" s="14"/>
+      <c r="F195" s="15"/>
       <c r="G195" s="3" t="s">
         <v>6</v>
       </c>
@@ -31494,11 +32495,11 @@
         <v>694</v>
       </c>
     </row>
-    <row r="196" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E196" s="17" t="s">
+    <row r="196" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="E196" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F196" s="18"/>
+      <c r="F196" s="11"/>
       <c r="H196">
         <v>1</v>
       </c>
@@ -31648,9 +32649,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E197" s="19"/>
-      <c r="F197" s="20"/>
+    <row r="197" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="E197" s="12"/>
+      <c r="F197" s="13"/>
       <c r="G197" t="s">
         <v>3</v>
       </c>
@@ -31819,14 +32820,14 @@
       <c r="BQ197" s="4">
         <v>0.82789422300000004</v>
       </c>
-      <c r="BS197" s="25">
+      <c r="BS197" s="9">
         <f t="shared" si="2"/>
         <v>0.82789422300000004</v>
       </c>
     </row>
-    <row r="198" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E198" s="19"/>
-      <c r="F198" s="20"/>
+    <row r="198" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="E198" s="12"/>
+      <c r="F198" s="13"/>
       <c r="G198" t="s">
         <v>4</v>
       </c>
@@ -32000,9 +33001,9 @@
         <v>0.82756602800000001</v>
       </c>
     </row>
-    <row r="199" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E199" s="19"/>
-      <c r="F199" s="20"/>
+    <row r="199" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="E199" s="12"/>
+      <c r="F199" s="13"/>
       <c r="G199" t="s">
         <v>5</v>
       </c>
@@ -32176,9 +33177,9 @@
         <v>0.82853025899999999</v>
       </c>
     </row>
-    <row r="200" spans="5:71" x14ac:dyDescent="0.25">
-      <c r="E200" s="21"/>
-      <c r="F200" s="22"/>
+    <row r="200" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="E200" s="14"/>
+      <c r="F200" s="15"/>
       <c r="G200" t="s">
         <v>6</v>
       </c>
@@ -32352,19 +33353,138 @@
         <v>694</v>
       </c>
     </row>
+    <row r="203" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="M203">
+        <f>MAX(M7,M12,M17,M22,M27,M32,M40,M45,M50,M55,M60,M65,M73,M78,M83,M88,M93,M98,M106,M111,M116,M121,M126,M131,M139,M144,M149,M154,M159,M164,M172,M177,M182,M187,M192,M197)</f>
+        <v>0.61303063400000002</v>
+      </c>
+      <c r="U203">
+        <f t="shared" ref="N203:BQ203" si="4">MAX(U7,U12,U17,U22,U27,U32,U40,U45,U50,U55,U60,U65,U73,U78,U83,U88,U93,U98,U106,U111,U116,U121,U126,U131,U139,U144,U149,U154,U159,U164,U172,U177,U182,U187,U192,U197)</f>
+        <v>0.78207857999999997</v>
+      </c>
+      <c r="AC203">
+        <f t="shared" si="4"/>
+        <v>0.64328809799999997</v>
+      </c>
+      <c r="AK203">
+        <f t="shared" si="4"/>
+        <v>0.81766616999999997</v>
+      </c>
+      <c r="AS203">
+        <f t="shared" si="4"/>
+        <v>0.822862396</v>
+      </c>
+      <c r="BA203">
+        <f t="shared" si="4"/>
+        <v>0.76905297900000003</v>
+      </c>
+      <c r="BI203">
+        <f t="shared" si="4"/>
+        <v>0.77246278199999996</v>
+      </c>
+      <c r="BQ203">
+        <f t="shared" si="4"/>
+        <v>0.82789422300000004</v>
+      </c>
+    </row>
+    <row r="206" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="B206">
+        <v>0.61303063400000002</v>
+      </c>
+      <c r="C206" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="B207">
+        <v>0.64328809799999997</v>
+      </c>
+      <c r="C207" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="208" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="B208">
+        <v>0.76905297900000003</v>
+      </c>
+      <c r="C208" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B209">
+        <v>0.77246278199999996</v>
+      </c>
+      <c r="C209" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B210">
+        <v>0.78207857999999997</v>
+      </c>
+      <c r="C210" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B211">
+        <v>0.81766616999999997</v>
+      </c>
+      <c r="C211" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B212">
+        <v>0.822862396</v>
+      </c>
+      <c r="C212" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B213">
+        <v>0.82789422300000004</v>
+      </c>
+      <c r="C213" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B206:B213">
+    <sortCondition ref="B206"/>
+  </sortState>
   <mergeCells count="50">
-    <mergeCell ref="E176:F180"/>
-    <mergeCell ref="E181:F185"/>
-    <mergeCell ref="E186:F190"/>
-    <mergeCell ref="E191:F195"/>
-    <mergeCell ref="E196:F200"/>
-    <mergeCell ref="E153:F157"/>
-    <mergeCell ref="E158:F162"/>
-    <mergeCell ref="E163:F167"/>
-    <mergeCell ref="A138:C142"/>
-    <mergeCell ref="E172:F175"/>
-    <mergeCell ref="A171:C175"/>
+    <mergeCell ref="AM2:AR4"/>
+    <mergeCell ref="AU2:AZ4"/>
+    <mergeCell ref="BC2:BH4"/>
+    <mergeCell ref="BK2:BP4"/>
+    <mergeCell ref="E21:F25"/>
+    <mergeCell ref="O2:T4"/>
+    <mergeCell ref="W2:AB4"/>
+    <mergeCell ref="AE2:AJ4"/>
+    <mergeCell ref="G2:L4"/>
+    <mergeCell ref="E7:F10"/>
+    <mergeCell ref="A1:C5"/>
+    <mergeCell ref="E40:F43"/>
+    <mergeCell ref="E44:F48"/>
+    <mergeCell ref="E49:F53"/>
+    <mergeCell ref="E54:F58"/>
+    <mergeCell ref="E26:F30"/>
+    <mergeCell ref="E31:F35"/>
+    <mergeCell ref="E11:F15"/>
+    <mergeCell ref="E16:F20"/>
+    <mergeCell ref="E59:F63"/>
+    <mergeCell ref="E64:F68"/>
+    <mergeCell ref="A39:C43"/>
+    <mergeCell ref="E73:F76"/>
+    <mergeCell ref="E77:F81"/>
+    <mergeCell ref="E82:F86"/>
+    <mergeCell ref="E87:F91"/>
+    <mergeCell ref="E92:F96"/>
+    <mergeCell ref="E97:F101"/>
+    <mergeCell ref="A73:C77"/>
     <mergeCell ref="E130:F134"/>
     <mergeCell ref="A105:C109"/>
     <mergeCell ref="E139:F142"/>
@@ -32375,37 +33495,20 @@
     <mergeCell ref="E115:F119"/>
     <mergeCell ref="E120:F124"/>
     <mergeCell ref="E125:F129"/>
-    <mergeCell ref="E82:F86"/>
-    <mergeCell ref="E87:F91"/>
-    <mergeCell ref="E92:F96"/>
-    <mergeCell ref="E97:F101"/>
-    <mergeCell ref="A73:C77"/>
-    <mergeCell ref="E59:F63"/>
-    <mergeCell ref="E64:F68"/>
-    <mergeCell ref="A39:C43"/>
-    <mergeCell ref="E73:F76"/>
-    <mergeCell ref="E77:F81"/>
-    <mergeCell ref="A1:C5"/>
-    <mergeCell ref="E40:F43"/>
-    <mergeCell ref="E44:F48"/>
-    <mergeCell ref="E49:F53"/>
-    <mergeCell ref="E54:F58"/>
-    <mergeCell ref="E26:F30"/>
-    <mergeCell ref="E31:F35"/>
-    <mergeCell ref="O2:T4"/>
-    <mergeCell ref="W2:AB4"/>
-    <mergeCell ref="AE2:AJ4"/>
-    <mergeCell ref="G2:L4"/>
-    <mergeCell ref="E7:F10"/>
-    <mergeCell ref="E11:F15"/>
-    <mergeCell ref="E16:F20"/>
-    <mergeCell ref="AM2:AR4"/>
-    <mergeCell ref="AU2:AZ4"/>
-    <mergeCell ref="BC2:BH4"/>
-    <mergeCell ref="BK2:BP4"/>
-    <mergeCell ref="E21:F25"/>
+    <mergeCell ref="E153:F157"/>
+    <mergeCell ref="E158:F162"/>
+    <mergeCell ref="E163:F167"/>
+    <mergeCell ref="A138:C142"/>
+    <mergeCell ref="E172:F175"/>
+    <mergeCell ref="A171:C175"/>
+    <mergeCell ref="E176:F180"/>
+    <mergeCell ref="E181:F185"/>
+    <mergeCell ref="E186:F190"/>
+    <mergeCell ref="E191:F195"/>
+    <mergeCell ref="E196:F200"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>